--- a/output/vignettes_ESP.xlsx
+++ b/output/vignettes_ESP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/jciturra_uc_cl/Documents/papers/factorial-cohesion/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C6901479C3574AFC124848BFC2C51BB201B06CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914DA88A-B510-42FE-8EEA-74C007215ACC}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C6901479C3574AFC124848BFC2C51BB201B06CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD8A81F-6EEF-40C7-A601-283F4DFD32A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,6 +696,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,13 +1021,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="94.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/output/vignettes_ESP.xlsx
+++ b/output/vignettes_ESP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/jciturra_uc_cl/Documents/papers/factorial-cohesion/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_C6901479C3574AFC124848BFC2C51BB201B06CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD8A81F-6EEF-40C7-A601-283F4DFD32A2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_C6901479C3574AFC124848BFC2C51BB201B06CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914DA88A-B510-42FE-8EEA-74C007215ACC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,10 +696,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,14 +1017,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="94.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
